--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/94/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/94/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>2.24424</v>
+        <v>2.13011</v>
       </c>
       <c r="C4" t="n">
-        <v>2244.24</v>
+        <v>2130.11</v>
       </c>
     </row>
     <row r="5">
@@ -488,21 +488,21 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>2.74646</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>2746.46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.12401</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>3.29127</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>3291.27</v>
       </c>
     </row>
     <row r="7">
@@ -510,219 +510,219 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.63424</v>
+        <v>3.62294</v>
       </c>
       <c r="C7" t="n">
-        <v>5634.24</v>
+        <v>3622.94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.186017</v>
       </c>
       <c r="B8" t="n">
-        <v>6.44721</v>
+        <v>3.83054</v>
       </c>
       <c r="C8" t="n">
-        <v>6447.21</v>
+        <v>3830.54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216989</v>
+        <v>0.216993</v>
       </c>
       <c r="B9" t="n">
-        <v>6.820189999999999</v>
+        <v>3.88875</v>
       </c>
       <c r="C9" t="n">
-        <v>6820.19</v>
+        <v>3888.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247965</v>
+        <v>0.247969</v>
       </c>
       <c r="B10" t="n">
-        <v>7.20411</v>
+        <v>3.90388</v>
       </c>
       <c r="C10" t="n">
-        <v>7204.11</v>
+        <v>3903.88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278892</v>
+        <v>0.278896</v>
       </c>
       <c r="B11" t="n">
-        <v>7.499540000000001</v>
+        <v>3.91131</v>
       </c>
       <c r="C11" t="n">
-        <v>7499.54</v>
+        <v>3911.31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309817</v>
+        <v>0.309821</v>
       </c>
       <c r="B12" t="n">
-        <v>7.75566</v>
+        <v>3.91721</v>
       </c>
       <c r="C12" t="n">
-        <v>7755.66</v>
+        <v>3917.21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340742</v>
+        <v>0.340746</v>
       </c>
       <c r="B13" t="n">
-        <v>8.01793</v>
+        <v>3.92173</v>
       </c>
       <c r="C13" t="n">
-        <v>8017.93</v>
+        <v>3921.73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371667</v>
+        <v>0.371671</v>
       </c>
       <c r="B14" t="n">
-        <v>8.217600000000001</v>
+        <v>3.92508</v>
       </c>
       <c r="C14" t="n">
-        <v>8217.6</v>
+        <v>3925.08</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402592</v>
+        <v>0.402596</v>
       </c>
       <c r="B15" t="n">
-        <v>8.417350000000001</v>
+        <v>3.92765</v>
       </c>
       <c r="C15" t="n">
-        <v>8417.35</v>
+        <v>3927.65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433517</v>
+        <v>0.433521</v>
       </c>
       <c r="B16" t="n">
-        <v>8.600340000000001</v>
+        <v>3.92959</v>
       </c>
       <c r="C16" t="n">
-        <v>8600.34</v>
+        <v>3929.59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464442</v>
+        <v>0.464446</v>
       </c>
       <c r="B17" t="n">
-        <v>8.76859</v>
+        <v>3.93085</v>
       </c>
       <c r="C17" t="n">
-        <v>8768.59</v>
+        <v>3930.85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495367</v>
+        <v>0.495371</v>
       </c>
       <c r="B18" t="n">
-        <v>8.928180000000001</v>
+        <v>3.93162</v>
       </c>
       <c r="C18" t="n">
-        <v>8928.18</v>
+        <v>3931.62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526292</v>
+        <v>0.526296</v>
       </c>
       <c r="B19" t="n">
-        <v>9.07855</v>
+        <v>3.93187</v>
       </c>
       <c r="C19" t="n">
-        <v>9078.549999999999</v>
+        <v>3931.87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557217</v>
+        <v>0.557221</v>
       </c>
       <c r="B20" t="n">
-        <v>9.197780000000002</v>
+        <v>3.9317</v>
       </c>
       <c r="C20" t="n">
-        <v>9197.780000000001</v>
+        <v>3931.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5881420000000001</v>
+        <v>0.5881459999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>9.329049999999999</v>
+        <v>3.93115</v>
       </c>
       <c r="C21" t="n">
-        <v>9329.049999999999</v>
+        <v>3931.15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619184</v>
+        <v>0.619189</v>
       </c>
       <c r="B22" t="n">
-        <v>9.432320000000001</v>
+        <v>3.93023</v>
       </c>
       <c r="C22" t="n">
-        <v>9432.32</v>
+        <v>3930.23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650357</v>
+        <v>0.650361</v>
       </c>
       <c r="B23" t="n">
-        <v>9.54753</v>
+        <v>3.92896</v>
       </c>
       <c r="C23" t="n">
-        <v>9547.530000000001</v>
+        <v>3928.96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.6815290000000001</v>
+        <v>0.681534</v>
       </c>
       <c r="B24" t="n">
-        <v>9.633750000000001</v>
+        <v>3.92739</v>
       </c>
       <c r="C24" t="n">
-        <v>9633.75</v>
+        <v>3927.39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712706</v>
+        <v>0.712711</v>
       </c>
       <c r="B25" t="n">
-        <v>9.71918</v>
+        <v>3.92554</v>
       </c>
       <c r="C25" t="n">
-        <v>9719.18</v>
+        <v>3925.54</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743879</v>
+        <v>0.743883</v>
       </c>
       <c r="B26" t="n">
-        <v>9.802620000000001</v>
+        <v>3.9234</v>
       </c>
       <c r="C26" t="n">
-        <v>9802.620000000001</v>
+        <v>3923.4</v>
       </c>
     </row>
     <row r="27">
@@ -730,835 +730,835 @@
         <v>0.775056</v>
       </c>
       <c r="B27" t="n">
-        <v>9.872639999999999</v>
+        <v>3.92098</v>
       </c>
       <c r="C27" t="n">
-        <v>9872.639999999999</v>
+        <v>3920.98</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8062279999999999</v>
+        <v>0.806233</v>
       </c>
       <c r="B28" t="n">
-        <v>9.931030000000002</v>
+        <v>3.9183</v>
       </c>
       <c r="C28" t="n">
-        <v>9931.030000000001</v>
+        <v>3918.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837401</v>
+        <v>0.837405</v>
       </c>
       <c r="B29" t="n">
-        <v>9.981370000000002</v>
+        <v>3.91536</v>
       </c>
       <c r="C29" t="n">
-        <v>9981.370000000001</v>
+        <v>3915.36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868578</v>
+        <v>0.868582</v>
       </c>
       <c r="B30" t="n">
-        <v>10.0255</v>
+        <v>3.91214</v>
       </c>
       <c r="C30" t="n">
-        <v>10025.5</v>
+        <v>3912.14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.89975</v>
+        <v>0.899755</v>
       </c>
       <c r="B31" t="n">
-        <v>10.0621</v>
+        <v>3.90869</v>
       </c>
       <c r="C31" t="n">
-        <v>10062.1</v>
+        <v>3908.69</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9309229999999999</v>
+        <v>0.9309269999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>10.09</v>
+        <v>3.90503</v>
       </c>
       <c r="C32" t="n">
-        <v>10090</v>
+        <v>3905.03</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9621</v>
+        <v>0.962105</v>
       </c>
       <c r="B33" t="n">
-        <v>10.1105</v>
+        <v>3.90116</v>
       </c>
       <c r="C33" t="n">
-        <v>10110.5</v>
+        <v>3901.16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993273</v>
+        <v>0.993277</v>
       </c>
       <c r="B34" t="n">
-        <v>10.1201</v>
+        <v>3.89703</v>
       </c>
       <c r="C34" t="n">
-        <v>10120.1</v>
+        <v>3897.03</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.0243</v>
+        <v>1.02432</v>
       </c>
       <c r="B35" t="n">
-        <v>10.1194</v>
+        <v>3.89266</v>
       </c>
       <c r="C35" t="n">
-        <v>10119.4</v>
+        <v>3892.66</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05527</v>
+        <v>1.05529</v>
       </c>
       <c r="B36" t="n">
-        <v>10.1103</v>
+        <v>3.88812</v>
       </c>
       <c r="C36" t="n">
-        <v>10110.3</v>
+        <v>3888.12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08623</v>
+        <v>1.08626</v>
       </c>
       <c r="B37" t="n">
-        <v>10.0929</v>
+        <v>3.88335</v>
       </c>
       <c r="C37" t="n">
-        <v>10092.9</v>
+        <v>3883.35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.1172</v>
+        <v>1.11722</v>
       </c>
       <c r="B38" t="n">
-        <v>10.0686</v>
+        <v>3.87835</v>
       </c>
       <c r="C38" t="n">
-        <v>10068.6</v>
+        <v>3878.35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14817</v>
+        <v>1.14819</v>
       </c>
       <c r="B39" t="n">
-        <v>10.0388</v>
+        <v>3.87306</v>
       </c>
       <c r="C39" t="n">
-        <v>10038.8</v>
+        <v>3873.06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17914</v>
+        <v>1.17916</v>
       </c>
       <c r="B40" t="n">
-        <v>10.005</v>
+        <v>3.8675</v>
       </c>
       <c r="C40" t="n">
-        <v>10005</v>
+        <v>3867.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21011</v>
+        <v>1.21014</v>
       </c>
       <c r="B41" t="n">
-        <v>9.967780000000001</v>
+        <v>3.86154</v>
       </c>
       <c r="C41" t="n">
-        <v>9967.780000000001</v>
+        <v>3861.54</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24107</v>
+        <v>1.24072</v>
       </c>
       <c r="B42" t="n">
-        <v>9.92755</v>
+        <v>3.85534</v>
       </c>
       <c r="C42" t="n">
-        <v>9927.549999999999</v>
+        <v>3855.34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27204</v>
+        <v>1.27128</v>
       </c>
       <c r="B43" t="n">
-        <v>9.884980000000001</v>
+        <v>3.8488</v>
       </c>
       <c r="C43" t="n">
-        <v>9884.98</v>
+        <v>3848.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30301</v>
+        <v>1.30183</v>
       </c>
       <c r="B44" t="n">
-        <v>9.840170000000001</v>
+        <v>3.84194</v>
       </c>
       <c r="C44" t="n">
-        <v>9840.17</v>
+        <v>3841.94</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33398</v>
+        <v>1.33256</v>
       </c>
       <c r="B45" t="n">
-        <v>9.793010000000001</v>
+        <v>3.83484</v>
       </c>
       <c r="C45" t="n">
-        <v>9793.01</v>
+        <v>3834.84</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36494</v>
+        <v>1.36413</v>
       </c>
       <c r="B46" t="n">
-        <v>9.74376</v>
+        <v>3.8273</v>
       </c>
       <c r="C46" t="n">
-        <v>9743.76</v>
+        <v>3827.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39591</v>
+        <v>1.3957</v>
       </c>
       <c r="B47" t="n">
-        <v>9.691420000000001</v>
+        <v>3.8195</v>
       </c>
       <c r="C47" t="n">
-        <v>9691.42</v>
+        <v>3819.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42688</v>
+        <v>1.42728</v>
       </c>
       <c r="B48" t="n">
-        <v>9.63517</v>
+        <v>3.81142</v>
       </c>
       <c r="C48" t="n">
-        <v>9635.17</v>
+        <v>3811.42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45785</v>
+        <v>1.45885</v>
       </c>
       <c r="B49" t="n">
-        <v>9.576139999999999</v>
+        <v>3.80298</v>
       </c>
       <c r="C49" t="n">
-        <v>9576.139999999999</v>
+        <v>3802.98</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48882</v>
+        <v>1.49043</v>
       </c>
       <c r="B50" t="n">
-        <v>9.51243</v>
+        <v>3.7942</v>
       </c>
       <c r="C50" t="n">
-        <v>9512.43</v>
+        <v>3794.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51978</v>
+        <v>1.522</v>
       </c>
       <c r="B51" t="n">
-        <v>9.44538</v>
+        <v>3.78508</v>
       </c>
       <c r="C51" t="n">
-        <v>9445.379999999999</v>
+        <v>3785.08</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55075</v>
+        <v>1.55357</v>
       </c>
       <c r="B52" t="n">
-        <v>9.37378</v>
+        <v>3.77558</v>
       </c>
       <c r="C52" t="n">
-        <v>9373.780000000001</v>
+        <v>3775.58</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58172</v>
+        <v>1.58515</v>
       </c>
       <c r="B53" t="n">
-        <v>9.29867</v>
+        <v>3.76562</v>
       </c>
       <c r="C53" t="n">
-        <v>9298.67</v>
+        <v>3765.62</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61268</v>
+        <v>1.61672</v>
       </c>
       <c r="B54" t="n">
-        <v>9.21889</v>
+        <v>3.75515</v>
       </c>
       <c r="C54" t="n">
-        <v>9218.889999999999</v>
+        <v>3755.15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64366</v>
+        <v>1.64829</v>
       </c>
       <c r="B55" t="n">
-        <v>9.136090000000001</v>
+        <v>3.74415</v>
       </c>
       <c r="C55" t="n">
-        <v>9136.09</v>
+        <v>3744.15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67462</v>
+        <v>1.67987</v>
       </c>
       <c r="B56" t="n">
-        <v>9.048260000000001</v>
+        <v>3.73267</v>
       </c>
       <c r="C56" t="n">
-        <v>9048.26</v>
+        <v>3732.67</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70555</v>
+        <v>1.71144</v>
       </c>
       <c r="B57" t="n">
-        <v>8.95739</v>
+        <v>3.72065</v>
       </c>
       <c r="C57" t="n">
-        <v>8957.389999999999</v>
+        <v>3720.65</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73659</v>
+        <v>1.74302</v>
       </c>
       <c r="B58" t="n">
-        <v>8.86068</v>
+        <v>3.7081</v>
       </c>
       <c r="C58" t="n">
-        <v>8860.68</v>
+        <v>3708.1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76751</v>
+        <v>1.77442</v>
       </c>
       <c r="B59" t="n">
-        <v>8.76056</v>
+        <v>3.695</v>
       </c>
       <c r="C59" t="n">
-        <v>8760.559999999999</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79864</v>
+        <v>1.80543</v>
       </c>
       <c r="B60" t="n">
-        <v>8.655149999999999</v>
+        <v>3.68142</v>
       </c>
       <c r="C60" t="n">
-        <v>8655.15</v>
+        <v>3681.42</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82947</v>
+        <v>1.83624</v>
       </c>
       <c r="B61" t="n">
-        <v>8.54669</v>
+        <v>3.66733</v>
       </c>
       <c r="C61" t="n">
-        <v>8546.690000000001</v>
+        <v>3667.33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86061</v>
+        <v>1.86748</v>
       </c>
       <c r="B62" t="n">
-        <v>8.43327</v>
+        <v>3.65241</v>
       </c>
       <c r="C62" t="n">
-        <v>8433.27</v>
+        <v>3652.41</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89142</v>
+        <v>1.89826</v>
       </c>
       <c r="B63" t="n">
-        <v>8.31697</v>
+        <v>3.63706</v>
       </c>
       <c r="C63" t="n">
-        <v>8316.969999999999</v>
+        <v>3637.06</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92265</v>
+        <v>1.92944</v>
       </c>
       <c r="B64" t="n">
-        <v>8.196</v>
+        <v>3.62076</v>
       </c>
       <c r="C64" t="n">
-        <v>8196</v>
+        <v>3620.76</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95338</v>
+        <v>1.96036</v>
       </c>
       <c r="B65" t="n">
-        <v>8.072890000000001</v>
+        <v>3.60382</v>
       </c>
       <c r="C65" t="n">
-        <v>8072.89</v>
+        <v>3603.82</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98463</v>
+        <v>1.99138</v>
       </c>
       <c r="B66" t="n">
-        <v>7.94526</v>
+        <v>3.58603</v>
       </c>
       <c r="C66" t="n">
-        <v>7945.26</v>
+        <v>3586.03</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01547</v>
+        <v>2.02237</v>
       </c>
       <c r="B67" t="n">
-        <v>7.81582</v>
+        <v>3.56744</v>
       </c>
       <c r="C67" t="n">
-        <v>7815.82</v>
+        <v>3567.44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04664</v>
+        <v>2.05328</v>
       </c>
       <c r="B68" t="n">
-        <v>7.6833</v>
+        <v>3.54792</v>
       </c>
       <c r="C68" t="n">
-        <v>7683.3</v>
+        <v>3547.92</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.0776</v>
+        <v>2.08431</v>
       </c>
       <c r="B69" t="n">
-        <v>7.55003</v>
+        <v>3.52747</v>
       </c>
       <c r="C69" t="n">
-        <v>7550.03</v>
+        <v>3527.47</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10862</v>
+        <v>2.11536</v>
       </c>
       <c r="B70" t="n">
-        <v>7.41461</v>
+        <v>3.50609</v>
       </c>
       <c r="C70" t="n">
-        <v>7414.61</v>
+        <v>3506.09</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13952</v>
+        <v>2.14625</v>
       </c>
       <c r="B71" t="n">
-        <v>7.280390000000001</v>
+        <v>3.48368</v>
       </c>
       <c r="C71" t="n">
-        <v>7280.39</v>
+        <v>3483.68</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17068</v>
+        <v>2.1774</v>
       </c>
       <c r="B72" t="n">
-        <v>7.14414</v>
+        <v>3.46019</v>
       </c>
       <c r="C72" t="n">
-        <v>7144.14</v>
+        <v>3460.19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20136</v>
+        <v>2.20833</v>
       </c>
       <c r="B73" t="n">
-        <v>7.01034</v>
+        <v>3.43583</v>
       </c>
       <c r="C73" t="n">
-        <v>7010.34</v>
+        <v>3435.83</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23277</v>
+        <v>2.23935</v>
       </c>
       <c r="B74" t="n">
-        <v>6.87428</v>
+        <v>3.41021</v>
       </c>
       <c r="C74" t="n">
-        <v>6874.28</v>
+        <v>3410.21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.2634</v>
+        <v>2.27038</v>
       </c>
       <c r="B75" t="n">
-        <v>6.74174</v>
+        <v>3.38378</v>
       </c>
       <c r="C75" t="n">
-        <v>6741.74</v>
+        <v>3383.78</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29479</v>
+        <v>2.30137</v>
       </c>
       <c r="B76" t="n">
-        <v>6.60844</v>
+        <v>3.35595</v>
       </c>
       <c r="C76" t="n">
-        <v>6608.44</v>
+        <v>3355.95</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32555</v>
+        <v>2.33228</v>
       </c>
       <c r="B77" t="n">
-        <v>6.47898</v>
+        <v>3.32736</v>
       </c>
       <c r="C77" t="n">
-        <v>6478.98</v>
+        <v>3327.36</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35664</v>
+        <v>2.36345</v>
       </c>
       <c r="B78" t="n">
-        <v>6.35296</v>
+        <v>3.2974</v>
       </c>
       <c r="C78" t="n">
-        <v>6352.96</v>
+        <v>3297.4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38768</v>
+        <v>2.39425</v>
       </c>
       <c r="B79" t="n">
-        <v>6.22993</v>
+        <v>3.26676</v>
       </c>
       <c r="C79" t="n">
-        <v>6229.93</v>
+        <v>3266.76</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.4184</v>
+        <v>2.42556</v>
       </c>
       <c r="B80" t="n">
-        <v>6.11301</v>
+        <v>3.23506</v>
       </c>
       <c r="C80" t="n">
-        <v>6113.01</v>
+        <v>3235.06</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44836</v>
+        <v>2.4563</v>
       </c>
       <c r="B81" t="n">
-        <v>6.00283</v>
+        <v>3.20258</v>
       </c>
       <c r="C81" t="n">
-        <v>6002.83</v>
+        <v>3202.58</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47928</v>
+        <v>2.48684</v>
       </c>
       <c r="B82" t="n">
-        <v>5.89286</v>
+        <v>3.17005</v>
       </c>
       <c r="C82" t="n">
-        <v>5892.86</v>
+        <v>3170.05</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51152</v>
+        <v>2.51687</v>
       </c>
       <c r="B83" t="n">
-        <v>5.78421</v>
+        <v>3.13695</v>
       </c>
       <c r="C83" t="n">
-        <v>5784.21</v>
+        <v>3136.95</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54281</v>
+        <v>2.54906</v>
       </c>
       <c r="B84" t="n">
-        <v>5.68162</v>
+        <v>3.10119</v>
       </c>
       <c r="C84" t="n">
-        <v>5681.62</v>
+        <v>3101.19</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57409</v>
+        <v>2.58035</v>
       </c>
       <c r="B85" t="n">
-        <v>5.58492</v>
+        <v>3.06567</v>
       </c>
       <c r="C85" t="n">
-        <v>5584.92</v>
+        <v>3065.67</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60405</v>
+        <v>2.61063</v>
       </c>
       <c r="B86" t="n">
-        <v>5.494</v>
+        <v>3.03064</v>
       </c>
       <c r="C86" t="n">
-        <v>5494</v>
+        <v>3030.64</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63391</v>
+        <v>2.64064</v>
       </c>
       <c r="B87" t="n">
-        <v>5.40866</v>
+        <v>2.99591</v>
       </c>
       <c r="C87" t="n">
-        <v>5408.66</v>
+        <v>2995.91</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66516</v>
+        <v>2.67287</v>
       </c>
       <c r="B88" t="n">
-        <v>5.32259</v>
+        <v>2.95748</v>
       </c>
       <c r="C88" t="n">
-        <v>5322.59</v>
+        <v>2957.48</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69717</v>
+        <v>2.70487</v>
       </c>
       <c r="B89" t="n">
-        <v>5.23662</v>
+        <v>2.91952</v>
       </c>
       <c r="C89" t="n">
-        <v>5236.62</v>
+        <v>2919.52</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72917</v>
+        <v>2.73583</v>
       </c>
       <c r="B90" t="n">
-        <v>5.15625</v>
+        <v>2.88206</v>
       </c>
       <c r="C90" t="n">
-        <v>5156.25</v>
+        <v>2882.06</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76029</v>
+        <v>2.76623</v>
       </c>
       <c r="B91" t="n">
-        <v>5.08078</v>
+        <v>2.84529</v>
       </c>
       <c r="C91" t="n">
-        <v>5080.78</v>
+        <v>2845.29</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79124</v>
+        <v>2.79647</v>
       </c>
       <c r="B92" t="n">
-        <v>5.01788</v>
+        <v>2.80911</v>
       </c>
       <c r="C92" t="n">
-        <v>5017.88</v>
+        <v>2809.11</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82227</v>
+        <v>2.82597</v>
       </c>
       <c r="B93" t="n">
-        <v>4.9603</v>
+        <v>2.77283</v>
       </c>
       <c r="C93" t="n">
-        <v>4960.3</v>
+        <v>2772.83</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85409</v>
+        <v>2.85888</v>
       </c>
       <c r="B94" t="n">
-        <v>4.918810000000001</v>
+        <v>2.73298</v>
       </c>
       <c r="C94" t="n">
-        <v>4918.81</v>
+        <v>2732.98</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88609</v>
+        <v>2.89098</v>
       </c>
       <c r="B95" t="n">
-        <v>4.90634</v>
+        <v>2.69425</v>
       </c>
       <c r="C95" t="n">
-        <v>4906.34</v>
+        <v>2694.25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91809</v>
+        <v>2.92206</v>
       </c>
       <c r="B96" t="n">
-        <v>4.89087</v>
+        <v>2.65631</v>
       </c>
       <c r="C96" t="n">
-        <v>4890.87</v>
+        <v>2656.31</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94863</v>
+        <v>2.95315</v>
       </c>
       <c r="B97" t="n">
-        <v>4.87438</v>
+        <v>2.61927</v>
       </c>
       <c r="C97" t="n">
-        <v>4874.38</v>
+        <v>2619.27</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97849</v>
+        <v>2.98328</v>
       </c>
       <c r="B98" t="n">
-        <v>4.856350000000001</v>
+        <v>2.58303</v>
       </c>
       <c r="C98" t="n">
-        <v>4856.35</v>
+        <v>2583.03</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00836</v>
+        <v>3.01254</v>
       </c>
       <c r="B99" t="n">
-        <v>4.83858</v>
+        <v>2.54771</v>
       </c>
       <c r="C99" t="n">
-        <v>4838.58</v>
+        <v>2547.71</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03823</v>
+        <v>3.0418</v>
       </c>
       <c r="B100" t="n">
-        <v>4.81591</v>
+        <v>2.51314</v>
       </c>
       <c r="C100" t="n">
-        <v>4815.91</v>
+        <v>2513.14</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06809</v>
+        <v>3.07534</v>
       </c>
       <c r="B101" t="n">
-        <v>4.80274</v>
+        <v>2.47402</v>
       </c>
       <c r="C101" t="n">
-        <v>4802.74</v>
+        <v>2474.02</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09763</v>
+        <v>3.10734</v>
       </c>
       <c r="B102" t="n">
-        <v>4.77671</v>
+        <v>2.43593</v>
       </c>
       <c r="C102" t="n">
-        <v>4776.71</v>
+        <v>2435.93</v>
       </c>
     </row>
   </sheetData>
